--- a/7 Palabras .xlsx
+++ b/7 Palabras .xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
   <si>
     <t>Actividad A</t>
   </si>
@@ -74,38 +74,50 @@
     <t>Comprender el funcionamiento del algoritmo Isolation Forest</t>
   </si>
   <si>
+    <t>Apagon</t>
+  </si>
+  <si>
+    <t>"Estudiar Kali en Profundidad"</t>
+  </si>
+  <si>
+    <t>Mejorar el PPT de Metodología</t>
+  </si>
+  <si>
+    <t>Base de datos de la problemática</t>
+  </si>
+  <si>
+    <t>Modularizar el software</t>
+  </si>
+  <si>
     <t>Ver como realizar un mejor preprocesamiento de los datos</t>
   </si>
   <si>
-    <t>Mejorar el PPT de Metodología</t>
-  </si>
-  <si>
-    <t>ChatGPT con el tema de Alex y el mio</t>
-  </si>
-  <si>
-    <t>Estudiar Kali en Profundidad</t>
+    <t>Ver como añadir mas algoritmos y su eficiencia</t>
   </si>
   <si>
     <t>Arreglar el acceso a la base de datos sql segun la consulta</t>
   </si>
   <si>
     <t>Metodología de la Investigación relacionados con su TESIS</t>
-  </si>
-  <si>
-    <t>Hacer que un chatbot te explique el analisis de los datos</t>
   </si>
   <si>
     <t>Base de datos de las
   5 referencias bibliográficas que le reflejan la situación problemática</t>
   </si>
   <si>
+    <t>ChatGPT con el tema de Alex y el mio</t>
+  </si>
+  <si>
     <t>Revisar Introducción y entregar al tutor</t>
   </si>
   <si>
     <t>Entregar al tutor Capítulo 1 para revisión</t>
   </si>
   <si>
-    <t>Rectificar Introducción y Capítulo 1</t>
+    <t>Estudiar Kali en Profundidad</t>
+  </si>
+  <si>
+    <t>Hacer que un chatbot te explique el analisis de los datos</t>
   </si>
   <si>
     <t>Entregar Introducción y Capítulo 1 rectificado</t>
@@ -149,7 +161,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +184,13 @@
     </font>
     <font>
       <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -640,137 +659,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -792,6 +811,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1118,8 +1143,8 @@
   <sheetPr/>
   <dimension ref="A1:D261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1213,196 +1238,240 @@
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D6" s="6">
         <v>45583</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>17</v>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="6">
         <v>45584</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
+      <c r="A8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="D8" s="6">
         <v>45585</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
+      <c r="A9" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D9" s="6">
         <v>45586</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>18</v>
+      <c r="A10" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D10" s="6">
         <v>45587</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
+      <c r="A11" s="8" t="s">
+        <v>16</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D11" s="6">
         <v>45588</v>
       </c>
     </row>
-    <row r="12" ht="27.6" spans="1:4">
+    <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D12" s="6">
         <v>45589</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="D13" s="6">
         <v>45590</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="D14" s="6">
         <v>45591</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D15" s="6">
         <v>45592</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+    <row r="16" ht="41.4" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>24</v>
+      </c>
       <c r="D16" s="6">
         <v>45593</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D17" s="6">
         <v>45594</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D18" s="6">
         <v>45595</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+    <row r="19" spans="3:4">
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D19" s="6">
         <v>45596</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+    <row r="20" spans="2:4">
+      <c r="B20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D20" s="6">
         <v>45597</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D21" s="6">
         <v>45598</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D22" s="6">
         <v>45599</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+    <row r="23" spans="2:4">
+      <c r="B23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D23" s="6">
         <v>45600</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+    <row r="24" spans="3:4">
       <c r="C24" s="2"/>
       <c r="D24" s="6">
         <v>45601</v>
@@ -1410,7 +1479,9 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>20</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="6">
         <v>45602</v>
@@ -1424,126 +1495,79 @@
         <v>45603</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2"/>
+    <row r="27" spans="2:4">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="6">
         <v>45604</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+    <row r="28" spans="4:4">
       <c r="D28" s="6">
         <v>45605</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
+    <row r="29" spans="4:4">
       <c r="D29" s="6">
         <v>45606</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+    <row r="30" spans="4:4">
       <c r="D30" s="6">
         <v>45607</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+    <row r="31" spans="4:4">
       <c r="D31" s="6">
         <v>45608</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+    <row r="32" spans="4:4">
       <c r="D32" s="6">
         <v>45609</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+    <row r="33" spans="4:4">
       <c r="D33" s="6">
         <v>45610</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+    <row r="34" spans="4:4">
       <c r="D34" s="6">
         <v>45611</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+    <row r="35" spans="4:4">
       <c r="D35" s="6">
         <v>45612</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+    <row r="36" spans="4:4">
       <c r="D36" s="6">
         <v>45613</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
+    <row r="37" spans="4:4">
       <c r="D37" s="6">
         <v>45614</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
+    <row r="38" spans="4:4">
       <c r="D38" s="6">
         <v>45615</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
+    <row r="39" spans="4:4">
       <c r="D39" s="6">
         <v>45616</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
+    <row r="40" spans="4:4">
       <c r="D40" s="6">
         <v>45617</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+    <row r="41" spans="4:4">
       <c r="D41" s="6">
         <v>45618</v>
       </c>
@@ -1582,7 +1606,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1608,7 +1632,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1649,7 +1673,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1691,7 +1715,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1723,8 +1747,8 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="9" t="s">
-        <v>30</v>
+      <c r="A63" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1750,7 +1774,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1783,7 +1807,7 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="6">
@@ -1840,7 +1864,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1898,7 +1922,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3316,7 +3340,7 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>

--- a/7 Palabras .xlsx
+++ b/7 Palabras .xlsx
@@ -1143,8 +1143,8 @@
   <sheetPr/>
   <dimension ref="A1:D261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1364,7 +1364,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="2" t="s">

--- a/7 Palabras .xlsx
+++ b/7 Palabras .xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t>Actividad A</t>
   </si>
@@ -95,23 +95,46 @@
     <t>Ver como añadir mas algoritmos y su eficiencia</t>
   </si>
   <si>
+    <t>Paralelizar la ejecucion del algoritmo en 4 hilos de ejecucion</t>
+  </si>
+  <si>
+    <t>Metodología de la Investigación relacionados con su TESIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Base de datos de 5 referencias </t>
+  </si>
+  <si>
+    <t>Fallar estrepitosamente en mejorar el tiempo de lectura</t>
+  </si>
+  <si>
+    <t>Mejorar el tiempo de ejecucion al cambiar de xlsx a json</t>
+  </si>
+  <si>
+    <t>Fallar en Kali Linux</t>
+  </si>
+  <si>
+    <t>Universidad</t>
+  </si>
+  <si>
+    <t>Descarga de Tutoriales Kali</t>
+  </si>
+  <si>
+    <t>Estudiar conceptos Seguridad Informatica</t>
+  </si>
+  <si>
+    <t>Instalar entorno virtual de prueba</t>
+  </si>
+  <si>
+    <t>Revisar Introducción y entregar al tutor</t>
+  </si>
+  <si>
+    <t>Entregar al tutor Capítulo 1 para revisión</t>
+  </si>
+  <si>
+    <t>ChatGPT con el tema de Alex y el mio</t>
+  </si>
+  <si>
     <t>Arreglar el acceso a la base de datos sql segun la consulta</t>
-  </si>
-  <si>
-    <t>Metodología de la Investigación relacionados con su TESIS</t>
-  </si>
-  <si>
-    <t>Base de datos de las
-  5 referencias bibliográficas que le reflejan la situación problemática</t>
-  </si>
-  <si>
-    <t>ChatGPT con el tema de Alex y el mio</t>
-  </si>
-  <si>
-    <t>Revisar Introducción y entregar al tutor</t>
-  </si>
-  <si>
-    <t>Entregar al tutor Capítulo 1 para revisión</t>
   </si>
   <si>
     <t>Estudiar Kali en Profundidad</t>
@@ -161,7 +184,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="d\-mmm\-yyyy"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +214,22 @@
     </font>
     <font>
       <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -659,137 +698,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -818,8 +857,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
@@ -1143,8 +1191,8 @@
   <sheetPr/>
   <dimension ref="A1:D261"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1367,7 +1415,7 @@
       <c r="A15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -1377,102 +1425,98 @@
         <v>45592</v>
       </c>
     </row>
-    <row r="16" ht="41.4" spans="1:4">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="12" t="s">
         <v>24</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="D16" s="6">
         <v>45593</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>13</v>
+      <c r="A17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="D17" s="6">
         <v>45594</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>27</v>
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="D18" s="6">
         <v>45595</v>
       </c>
     </row>
-    <row r="19" spans="3:4">
-      <c r="C19" s="2" t="s">
-        <v>25</v>
+    <row r="19" spans="1:4">
+      <c r="A19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="D19" s="6">
         <v>45596</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
-      <c r="B20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>25</v>
-      </c>
+    <row r="20" spans="4:4">
       <c r="D20" s="6">
         <v>45597</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
       <c r="D21" s="6">
         <v>45598</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="A22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
       <c r="D22" s="6">
         <v>45599</v>
       </c>
     </row>
-    <row r="23" spans="2:4">
-      <c r="B23" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>25</v>
-      </c>
+    <row r="23" spans="1:4">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
       <c r="D23" s="6">
         <v>45600</v>
       </c>
     </row>
-    <row r="24" spans="3:4">
-      <c r="C24" s="2"/>
+    <row r="24" spans="1:4">
+      <c r="A24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D24" s="6">
         <v>45601</v>
       </c>
@@ -1482,92 +1526,163 @@
       <c r="B25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="D25" s="6">
         <v>45602</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="A26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D26" s="6">
         <v>45603</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
+    <row r="27" spans="1:4">
+      <c r="A27" s="13"/>
+      <c r="B27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D27" s="6">
         <v>45604</v>
       </c>
     </row>
-    <row r="28" spans="4:4">
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D28" s="6">
         <v>45605</v>
       </c>
     </row>
-    <row r="29" spans="4:4">
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D29" s="6">
         <v>45606</v>
       </c>
     </row>
-    <row r="30" spans="4:4">
+    <row r="30" spans="1:4">
+      <c r="A30" s="13"/>
+      <c r="B30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>34</v>
+      </c>
       <c r="D30" s="6">
         <v>45607</v>
       </c>
     </row>
-    <row r="31" spans="4:4">
+    <row r="31" spans="1:4">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="6">
         <v>45608</v>
       </c>
     </row>
-    <row r="32" spans="4:4">
+    <row r="32" spans="1:4">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="6">
         <v>45609</v>
       </c>
     </row>
-    <row r="33" spans="4:4">
+    <row r="33" spans="1:4">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="13"/>
       <c r="D33" s="6">
         <v>45610</v>
       </c>
     </row>
-    <row r="34" spans="4:4">
+    <row r="34" spans="1:4">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
       <c r="D34" s="6">
         <v>45611</v>
       </c>
     </row>
-    <row r="35" spans="4:4">
+    <row r="35" spans="1:4">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="13"/>
       <c r="D35" s="6">
         <v>45612</v>
       </c>
     </row>
-    <row r="36" spans="4:4">
+    <row r="36" spans="1:4">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="13"/>
       <c r="D36" s="6">
         <v>45613</v>
       </c>
     </row>
-    <row r="37" spans="4:4">
+    <row r="37" spans="1:4">
+      <c r="A37" s="13"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
       <c r="D37" s="6">
         <v>45614</v>
       </c>
     </row>
-    <row r="38" spans="4:4">
+    <row r="38" spans="1:4">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="6">
         <v>45615</v>
       </c>
     </row>
-    <row r="39" spans="4:4">
+    <row r="39" spans="1:4">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="13"/>
       <c r="D39" s="6">
         <v>45616</v>
       </c>
     </row>
-    <row r="40" spans="4:4">
+    <row r="40" spans="1:4">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="13"/>
       <c r="D40" s="6">
         <v>45617</v>
       </c>
     </row>
-    <row r="41" spans="4:4">
+    <row r="41" spans="1:4">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
       <c r="D41" s="6">
         <v>45618</v>
       </c>
@@ -1606,7 +1721,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1632,7 +1747,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1664,7 +1779,8 @@
         <v>45629</v>
       </c>
     </row>
-    <row r="53" spans="2:4">
+    <row r="53" spans="1:4">
+      <c r="A53" s="13"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="6">
@@ -1673,7 +1789,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1715,7 +1831,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1723,7 +1839,8 @@
         <v>45636</v>
       </c>
     </row>
-    <row r="60" spans="2:4">
+    <row r="60" spans="1:4">
+      <c r="A60" s="13"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="6">
@@ -1747,8 +1864,8 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="11" t="s">
-        <v>34</v>
+      <c r="A63" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1774,7 +1891,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1798,7 +1915,8 @@
         <v>45645</v>
       </c>
     </row>
-    <row r="69" spans="2:4">
+    <row r="69" spans="1:4">
+      <c r="A69" s="13"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="6">
@@ -1807,8 +1925,9 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="4" t="s">
-        <v>36</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B70" s="13"/>
       <c r="C70" s="2"/>
       <c r="D70" s="6">
         <v>45647</v>
@@ -1864,7 +1983,7 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="4" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1922,7 +2041,7 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3340,7 +3459,7 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="4" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>

--- a/7 Palabras .xlsx
+++ b/7 Palabras .xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9000"/>
+    <workbookView windowWidth="23040" windowHeight="8622"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="41">
   <si>
     <t>Actividad A</t>
   </si>
@@ -119,10 +119,7 @@
     <t>Descarga de Tutoriales Kali</t>
   </si>
   <si>
-    <t>Estudiar conceptos Seguridad Informatica</t>
-  </si>
-  <si>
-    <t>Instalar entorno virtual de prueba</t>
+    <t>Mala gestion tutoria</t>
   </si>
   <si>
     <t>Revisar Introducción y entregar al tutor</t>
@@ -143,31 +140,13 @@
     <t>Hacer que un chatbot te explique el analisis de los datos</t>
   </si>
   <si>
-    <t>Entregar Introducción y Capítulo 1 rectificado</t>
-  </si>
-  <si>
-    <t>Desarrollar módulo de detección de anomalías</t>
-  </si>
-  <si>
-    <t>Ejecución de las pruebas / experimentos</t>
-  </si>
-  <si>
-    <t>Elaborar capítulo con resultados de las pruebas y experimentos</t>
-  </si>
-  <si>
-    <t>Gestionar config	(versiones del código, entregables del proyecto)</t>
-  </si>
-  <si>
-    <t>Elaborar informe de la práctica profesional</t>
-  </si>
-  <si>
-    <t>Entregar informe de PP al tutor</t>
-  </si>
-  <si>
-    <t>Rectificar señalamientos del informe de PP</t>
-  </si>
-  <si>
-    <t>Entrega del informe final de PP</t>
+    <t>Terminar PPT</t>
+  </si>
+  <si>
+    <t>Terminar informe</t>
+  </si>
+  <si>
+    <t>Avanzar con la tesis</t>
   </si>
   <si>
     <t>Defensa de tesis</t>
@@ -828,7 +807,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -866,61 +845,57 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Coma" xfId="1" builtinId="3"/>
+    <cellStyle name="Moneda" xfId="2" builtinId="4"/>
+    <cellStyle name="Porcentaje" xfId="3" builtinId="5"/>
+    <cellStyle name="Coma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Moneda [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hipervínculo" xfId="6" builtinId="8"/>
+    <cellStyle name="Hipervínculo visitado" xfId="7" builtinId="9"/>
+    <cellStyle name="Nota" xfId="8" builtinId="10"/>
+    <cellStyle name="Texto de advertencia" xfId="9" builtinId="11"/>
+    <cellStyle name="Título" xfId="10" builtinId="15"/>
+    <cellStyle name="Texto explicativo" xfId="11" builtinId="53"/>
+    <cellStyle name="Título 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Título 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Título 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Título 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Entrada" xfId="16" builtinId="20"/>
+    <cellStyle name="Salida" xfId="17" builtinId="21"/>
+    <cellStyle name="Cálculo" xfId="18" builtinId="22"/>
+    <cellStyle name="Celda de comprobación" xfId="19" builtinId="23"/>
+    <cellStyle name="Celda vinculada" xfId="20" builtinId="24"/>
     <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="Correcto" xfId="22" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutro" xfId="24" builtinId="28"/>
+    <cellStyle name="Énfasis1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Énfasis1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Énfasis1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Énfasis1" xfId="28" builtinId="32"/>
+    <cellStyle name="Énfasis2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Énfasis2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Énfasis2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Énfasis2" xfId="32" builtinId="36"/>
+    <cellStyle name="Énfasis3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Énfasis3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Énfasis3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Énfasis3" xfId="36" builtinId="40"/>
+    <cellStyle name="Énfasis4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Énfasis4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Énfasis4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Énfasis4" xfId="40" builtinId="44"/>
+    <cellStyle name="Énfasis5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Énfasis5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Énfasis5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Énfasis5" xfId="44" builtinId="48"/>
+    <cellStyle name="Énfasis6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Énfasis6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Énfasis6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Énfasis6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1191,27 +1166,27 @@
   <sheetPr/>
   <dimension ref="A1:D261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="67.4444444444444" style="1" customWidth="1"/>
-    <col min="2" max="2" width="67" style="1" customWidth="1"/>
-    <col min="3" max="3" width="54.2222222222222" style="1" customWidth="1"/>
+    <col min="1" max="1" width="40.6842105263158" style="1" customWidth="1"/>
+    <col min="2" max="2" width="60.0526315789474" style="1" customWidth="1"/>
+    <col min="3" max="3" width="54.219298245614" style="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="6" width="23.4444444444444" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.4473684210526" style="1" customWidth="1"/>
     <col min="7" max="7" width="34.3333333333333" style="1" customWidth="1"/>
-    <col min="8" max="8" width="1.77777777777778" style="1" customWidth="1"/>
-    <col min="9" max="9" width="3.88888888888889" style="1" customWidth="1"/>
+    <col min="8" max="8" width="1.78070175438596" style="1" customWidth="1"/>
+    <col min="9" max="9" width="3.8859649122807" style="1" customWidth="1"/>
     <col min="10" max="10" width="3.66666666666667" style="1" customWidth="1"/>
     <col min="11" max="11" width="9" style="1"/>
-    <col min="12" max="12" width="3.77777777777778" style="1" customWidth="1"/>
+    <col min="12" max="12" width="3.78070175438596" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" hidden="1" customWidth="1"/>
     <col min="14" max="15" width="9" style="1"/>
-    <col min="16" max="16" width="12.8888888888889" style="1"/>
+    <col min="16" max="16" width="12.8859649122807" style="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1460,7 +1435,7 @@
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="6">
@@ -1468,54 +1443,84 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>31</v>
+      <c r="A19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="D19" s="6">
         <v>45596</v>
       </c>
     </row>
-    <row r="20" spans="4:4">
+    <row r="20" spans="1:4">
+      <c r="A20" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D20" s="6">
         <v>45597</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="A21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D21" s="6">
         <v>45598</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="A22" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D22" s="6">
         <v>45599</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="A23" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D23" s="6">
         <v>45600</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="D24" s="6">
         <v>45601</v>
@@ -1527,7 +1532,7 @@
         <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D25" s="6">
         <v>45602</v>
@@ -1541,19 +1546,19 @@
         <v>13</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="6">
         <v>45603</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="13"/>
+      <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D27" s="6">
         <v>45604</v>
@@ -1561,13 +1566,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="6">
         <v>45605</v>
@@ -1575,300 +1580,488 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C29" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D29" s="6">
         <v>45606</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="13"/>
+      <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D30" s="6">
         <v>45607</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="A31" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D31" s="6">
         <v>45608</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="A32" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D32" s="6">
         <v>45609</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="A33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D33" s="6">
         <v>45610</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="A34" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D34" s="6">
         <v>45611</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="A35" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D35" s="6">
         <v>45612</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
+      <c r="A36" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D36" s="6">
         <v>45613</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
+      <c r="A37" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D37" s="6">
         <v>45614</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
+      <c r="A38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D38" s="6">
         <v>45615</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
+      <c r="A39" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D39" s="6">
         <v>45616</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
+      <c r="A40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D40" s="6">
         <v>45617</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
+      <c r="A41" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D41" s="6">
         <v>45618</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
+      <c r="A42" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D42" s="6">
         <v>45619</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
+      <c r="A43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D43" s="6">
         <v>45620</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
+      <c r="A44" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D44" s="6">
         <v>45621</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
+      <c r="A45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D45" s="6">
         <v>45622</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D46" s="6">
         <v>45623</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
+      <c r="A47" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D47" s="6">
         <v>45624</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
+      <c r="A48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D48" s="6">
         <v>45625</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D49" s="6">
         <v>45626</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
+      <c r="A50" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D50" s="6">
         <v>45627</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="A51" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D51" s="6">
         <v>45628</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
+      <c r="A52" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D52" s="6">
         <v>45629</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="13"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
+      <c r="A53" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D53" s="6">
         <v>45630</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D54" s="6">
         <v>45631</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
+      <c r="A55" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D55" s="6">
         <v>45632</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
+      <c r="A56" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D56" s="6">
         <v>45633</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
+      <c r="A57" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D57" s="6">
         <v>45634</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
+      <c r="A58" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D58" s="6">
         <v>45635</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D59" s="6">
         <v>45636</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="13"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
+      <c r="A60" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D60" s="6">
         <v>45637</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
+      <c r="A61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D61" s="6">
         <v>45638</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+      <c r="A62" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D62" s="6">
         <v>45639</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+      <c r="A63" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="D63" s="6">
         <v>45640</v>
       </c>
@@ -1891,10 +2084,14 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="D66" s="6">
         <v>45643</v>
       </c>
@@ -1916,7 +2113,7 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="13"/>
+      <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="6">
@@ -1924,10 +2121,8 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B70" s="13"/>
+      <c r="A70" s="4"/>
+      <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="6">
         <v>45647</v>
@@ -1982,9 +2177,7 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="4" t="s">
-        <v>45</v>
-      </c>
+      <c r="A77" s="4"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="6">
@@ -2040,9 +2233,7 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="A84" s="4"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="6">
@@ -3459,7 +3650,7 @@
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
